--- a/课后作业成绩2018/作业12-13成绩.xlsx
+++ b/课后作业成绩2018/作业12-13成绩.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongyanxiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongyanxiang\Documents\GitHub\Discrete-mathematics\课后作业成绩2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,127 +159,128 @@
     <t> 褚有刚</t>
   </si>
   <si>
+    <t> 石丰源</t>
+  </si>
+  <si>
+    <t> 郭睿杰</t>
+  </si>
+  <si>
+    <t> 黄逸维</t>
+  </si>
+  <si>
+    <t> 周思行</t>
+  </si>
+  <si>
+    <t> 周云泽</t>
+  </si>
+  <si>
+    <t> 彭翔宇</t>
+  </si>
+  <si>
+    <t> 谢宇轩</t>
+  </si>
+  <si>
+    <t> 刘力源</t>
+  </si>
+  <si>
+    <t> 刘添翼</t>
+  </si>
+  <si>
+    <t> 吴松</t>
+  </si>
+  <si>
+    <t> 胡育玮</t>
+  </si>
+  <si>
+    <t> 张梓悦</t>
+  </si>
+  <si>
+    <t> 郭骁</t>
+  </si>
+  <si>
+    <t> 王致远</t>
+  </si>
+  <si>
+    <t> 马国豪</t>
+  </si>
+  <si>
+    <t> 侯培诺</t>
+  </si>
+  <si>
+    <t> 居思远</t>
+  </si>
+  <si>
+    <t> 韦华飞</t>
+  </si>
+  <si>
+    <t> 李天赐</t>
+  </si>
+  <si>
+    <t> 酒阜康</t>
+  </si>
+  <si>
+    <t> 郁辰阳</t>
+  </si>
+  <si>
+    <t> 施超烜</t>
+  </si>
+  <si>
+    <t> 肖维城</t>
+  </si>
+  <si>
+    <t> 王昆</t>
+  </si>
+  <si>
+    <t> 刘松桦</t>
+  </si>
+  <si>
+    <t> 吴晓阳</t>
+  </si>
+  <si>
+    <t> 蒋雨宸</t>
+  </si>
+  <si>
+    <t> 徐国栋</t>
+  </si>
+  <si>
+    <t> 周若衡</t>
+  </si>
+  <si>
+    <t> 陈昊东</t>
+  </si>
+  <si>
+    <t> 赵昊</t>
+  </si>
+  <si>
+    <t> 王聪</t>
+  </si>
+  <si>
+    <t> 刘如岩</t>
+  </si>
+  <si>
+    <t> 冯旭晨</t>
+  </si>
+  <si>
+    <t> 苏泓铭</t>
+  </si>
+  <si>
+    <t> 王一博</t>
+  </si>
+  <si>
+    <t> 王小泽</t>
+  </si>
+  <si>
+    <t> 刘晨宇</t>
+  </si>
+  <si>
+    <t> 卜子睿</t>
+  </si>
+  <si>
+    <t> *工科试验班 - *工科试验班</t>
+  </si>
+  <si>
     <t> 施展</t>
-  </si>
-  <si>
-    <t> 石丰源</t>
-  </si>
-  <si>
-    <t> 郭睿杰</t>
-  </si>
-  <si>
-    <t> 黄逸维</t>
-  </si>
-  <si>
-    <t> 周思行</t>
-  </si>
-  <si>
-    <t> 周云泽</t>
-  </si>
-  <si>
-    <t> 彭翔宇</t>
-  </si>
-  <si>
-    <t> 谢宇轩</t>
-  </si>
-  <si>
-    <t> 刘力源</t>
-  </si>
-  <si>
-    <t> 刘添翼</t>
-  </si>
-  <si>
-    <t> 吴松</t>
-  </si>
-  <si>
-    <t> 胡育玮</t>
-  </si>
-  <si>
-    <t> 张梓悦</t>
-  </si>
-  <si>
-    <t> 郭骁</t>
-  </si>
-  <si>
-    <t> 王致远</t>
-  </si>
-  <si>
-    <t> 马国豪</t>
-  </si>
-  <si>
-    <t> 侯培诺</t>
-  </si>
-  <si>
-    <t> 居思远</t>
-  </si>
-  <si>
-    <t> 韦华飞</t>
-  </si>
-  <si>
-    <t> 李天赐</t>
-  </si>
-  <si>
-    <t> 酒阜康</t>
-  </si>
-  <si>
-    <t> 郁辰阳</t>
-  </si>
-  <si>
-    <t> 施超烜</t>
-  </si>
-  <si>
-    <t> 肖维城</t>
-  </si>
-  <si>
-    <t> 王昆</t>
-  </si>
-  <si>
-    <t> 刘松桦</t>
-  </si>
-  <si>
-    <t> 吴晓阳</t>
-  </si>
-  <si>
-    <t> 蒋雨宸</t>
-  </si>
-  <si>
-    <t> 徐国栋</t>
-  </si>
-  <si>
-    <t> 周若衡</t>
-  </si>
-  <si>
-    <t> 陈昊东</t>
-  </si>
-  <si>
-    <t> 赵昊</t>
-  </si>
-  <si>
-    <t> 王聪</t>
-  </si>
-  <si>
-    <t> 刘如岩</t>
-  </si>
-  <si>
-    <t> 冯旭晨</t>
-  </si>
-  <si>
-    <t> 苏泓铭</t>
-  </si>
-  <si>
-    <t> 王一博</t>
-  </si>
-  <si>
-    <t> 王小泽</t>
-  </si>
-  <si>
-    <t> 刘晨宇</t>
-  </si>
-  <si>
-    <t> 卜子睿</t>
-  </si>
-  <si>
-    <t> *工科试验班 - *工科试验班</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1304,7 +1305,7 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2362,7 @@
         <v>171860528</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
@@ -2402,7 +2403,7 @@
         <v>171860530</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -2447,7 +2448,7 @@
         <v>171860541</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2492,7 +2493,7 @@
         <v>171860542</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2537,7 +2538,7 @@
         <v>171860545</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -2582,7 +2583,7 @@
         <v>171860546</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
@@ -2627,7 +2628,7 @@
         <v>171860547</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2672,7 +2673,7 @@
         <v>171860557</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
@@ -2717,7 +2718,7 @@
         <v>171860560</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -2762,7 +2763,7 @@
         <v>171860562</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
@@ -2807,7 +2808,7 @@
         <v>171860563</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -2852,7 +2853,7 @@
         <v>171860574</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -2897,7 +2898,7 @@
         <v>171860578</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
@@ -2942,7 +2943,7 @@
         <v>171860579</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>32</v>
@@ -2987,7 +2988,7 @@
         <v>171860583</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
@@ -3032,7 +3033,7 @@
         <v>171860589</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>32</v>
@@ -3073,7 +3074,7 @@
         <v>171860598</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>32</v>
@@ -3118,7 +3119,7 @@
         <v>171860606</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>32</v>
@@ -3163,7 +3164,7 @@
         <v>171860608</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
@@ -3208,7 +3209,7 @@
         <v>171860610</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
@@ -3253,7 +3254,7 @@
         <v>171860612</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
@@ -3298,7 +3299,7 @@
         <v>171860613</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>32</v>
@@ -3343,7 +3344,7 @@
         <v>171860616</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>32</v>
@@ -3388,7 +3389,7 @@
         <v>171860617</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>32</v>
@@ -3433,7 +3434,7 @@
         <v>171860618</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>32</v>
@@ -3478,7 +3479,7 @@
         <v>171860621</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>32</v>
@@ -3523,7 +3524,7 @@
         <v>171860622</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>32</v>
@@ -3568,7 +3569,7 @@
         <v>171860630</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>32</v>
@@ -3613,7 +3614,7 @@
         <v>171860633</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>32</v>
@@ -3658,7 +3659,7 @@
         <v>171860634</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>32</v>
@@ -3703,7 +3704,7 @@
         <v>171860636</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>32</v>
@@ -3748,7 +3749,7 @@
         <v>171860655</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>32</v>
@@ -3793,7 +3794,7 @@
         <v>171860656</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>32</v>
@@ -3838,7 +3839,7 @@
         <v>171860669</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>32</v>
@@ -3883,7 +3884,7 @@
         <v>171860681</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>32</v>
@@ -3928,7 +3929,7 @@
         <v>171860682</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>32</v>
@@ -3973,7 +3974,7 @@
         <v>171860683</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>32</v>
@@ -4018,7 +4019,7 @@
         <v>171860684</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>32</v>
@@ -4063,7 +4064,7 @@
         <v>171860686</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>32</v>
@@ -4108,13 +4109,13 @@
         <v>171870020</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
